--- a/pred_ohlcv/54/2019-11-01 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 ITC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F2" t="n">
-        <v>5868.5332</v>
+        <v>235.575</v>
       </c>
       <c r="G2" t="n">
-        <v>161.75</v>
+        <v>161.7333333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C3" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D3" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E3" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F3" t="n">
-        <v>1944.0538</v>
+        <v>5868.5332</v>
       </c>
       <c r="G3" t="n">
-        <v>161.7333333333333</v>
+        <v>161.75</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>163</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" t="n">
-        <v>245.0405</v>
+        <v>1944.0538</v>
       </c>
       <c r="G4" t="n">
         <v>161.7333333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F5" t="n">
-        <v>7318.6027</v>
+        <v>245.0405</v>
       </c>
       <c r="G5" t="n">
-        <v>161.7</v>
+        <v>161.7333333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>161</v>
       </c>
       <c r="F6" t="n">
-        <v>11582.3798</v>
+        <v>7318.6027</v>
       </c>
       <c r="G6" t="n">
-        <v>161.6666666666667</v>
+        <v>161.7</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C7" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E7" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F7" t="n">
-        <v>1604.7562</v>
+        <v>11582.3798</v>
       </c>
       <c r="G7" t="n">
-        <v>161.6166666666667</v>
+        <v>161.6666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" t="n">
-        <v>141.8857</v>
+        <v>1604.7562</v>
       </c>
       <c r="G8" t="n">
-        <v>161.6</v>
+        <v>161.6166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>161</v>
       </c>
       <c r="F9" t="n">
-        <v>62.1118</v>
+        <v>141.8857</v>
       </c>
       <c r="G9" t="n">
         <v>161.6</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>161</v>
       </c>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" t="n">
         <v>161</v>
       </c>
       <c r="E10" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>62.1118</v>
       </c>
       <c r="G10" t="n">
-        <v>161.5833333333333</v>
+        <v>161.6</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E11" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" t="n">
-        <v>11655.7437</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="n">
-        <v>161.6</v>
+        <v>161.5833333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>163</v>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" t="n">
         <v>163</v>
       </c>
       <c r="E12" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" t="n">
-        <v>216.34</v>
+        <v>11655.7437</v>
       </c>
       <c r="G12" t="n">
-        <v>161.6333333333333</v>
+        <v>161.6</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D13" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F13" t="n">
-        <v>11259.8228</v>
+        <v>216.34</v>
       </c>
       <c r="G13" t="n">
-        <v>161.65</v>
+        <v>161.6333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>161</v>
       </c>
       <c r="C14" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" t="n">
         <v>161</v>
       </c>
       <c r="E14" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" t="n">
-        <v>259.13</v>
+        <v>11259.8228</v>
       </c>
       <c r="G14" t="n">
-        <v>161.6833333333333</v>
+        <v>161.65</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" t="n">
-        <v>272.6613</v>
+        <v>259.13</v>
       </c>
       <c r="G15" t="n">
-        <v>161.7166666666667</v>
+        <v>161.6833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" t="n">
-        <v>475.47</v>
+        <v>272.6613</v>
       </c>
       <c r="G16" t="n">
-        <v>161.75</v>
+        <v>161.7166666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>161</v>
       </c>
       <c r="C17" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D17" t="n">
         <v>161</v>
       </c>
       <c r="E17" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F17" t="n">
-        <v>2470.2679</v>
+        <v>475.47</v>
       </c>
       <c r="G17" t="n">
-        <v>161.7333333333333</v>
+        <v>161.75</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>161</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" t="n">
         <v>161</v>
       </c>
       <c r="E18" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" t="n">
-        <v>139.97</v>
+        <v>2470.2679</v>
       </c>
       <c r="G18" t="n">
         <v>161.7333333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>161</v>
       </c>
       <c r="F19" t="n">
-        <v>434.5204</v>
+        <v>139.97</v>
       </c>
       <c r="G19" t="n">
-        <v>161.6833333333333</v>
+        <v>161.7333333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" t="n">
-        <v>1201.5709</v>
+        <v>434.5204</v>
       </c>
       <c r="G20" t="n">
-        <v>161.65</v>
+        <v>161.6833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E21" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F21" t="n">
-        <v>644.091</v>
+        <v>1201.5709</v>
       </c>
       <c r="G21" t="n">
-        <v>161.5833333333333</v>
+        <v>161.65</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>160</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>644.091</v>
       </c>
       <c r="G22" t="n">
-        <v>161.55</v>
+        <v>161.5833333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>160</v>
       </c>
       <c r="C23" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E23" t="n">
         <v>160</v>
       </c>
       <c r="F23" t="n">
-        <v>5175.3123</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>161.5166666666667</v>
+        <v>161.55</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D24" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24" t="n">
         <v>160</v>
       </c>
       <c r="F24" t="n">
-        <v>270.7438</v>
+        <v>5175.3123</v>
       </c>
       <c r="G24" t="n">
-        <v>161.5</v>
+        <v>161.5166666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" t="n">
-        <v>2280.8887</v>
+        <v>270.7438</v>
       </c>
       <c r="G25" t="n">
         <v>161.5</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>161</v>
       </c>
       <c r="F26" t="n">
-        <v>239.7315</v>
+        <v>2280.8887</v>
       </c>
       <c r="G26" t="n">
-        <v>161.4833333333333</v>
+        <v>161.5</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>161</v>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>239.7315</v>
       </c>
       <c r="G27" t="n">
-        <v>161.4666666666667</v>
+        <v>161.4833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>161</v>
       </c>
       <c r="F28" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G28" t="n">
-        <v>161.45</v>
+        <v>161.4666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1116,18 +1202,21 @@
         <v>161</v>
       </c>
       <c r="D29" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E29" t="n">
         <v>161</v>
       </c>
       <c r="F29" t="n">
-        <v>6020.2954</v>
+        <v>750</v>
       </c>
       <c r="G29" t="n">
-        <v>161.4333333333333</v>
+        <v>161.45</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1142,18 +1231,21 @@
         <v>161</v>
       </c>
       <c r="D30" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E30" t="n">
         <v>161</v>
       </c>
       <c r="F30" t="n">
-        <v>2201.244</v>
+        <v>6020.2954</v>
       </c>
       <c r="G30" t="n">
-        <v>161.4</v>
+        <v>161.4333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C31" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D31" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E31" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F31" t="n">
-        <v>1714.981</v>
+        <v>2201.244</v>
       </c>
       <c r="G31" t="n">
-        <v>161.3833333333333</v>
+        <v>161.4</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,10 +1283,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C32" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" t="n">
         <v>160</v>
@@ -1200,12 +1295,15 @@
         <v>159</v>
       </c>
       <c r="F32" t="n">
-        <v>2193.7615</v>
+        <v>1714.981</v>
       </c>
       <c r="G32" t="n">
-        <v>161.4166666666667</v>
+        <v>161.3833333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1312,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" t="n">
         <v>160</v>
@@ -1223,15 +1321,18 @@
         <v>160</v>
       </c>
       <c r="E33" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" t="n">
-        <v>3036.0413</v>
+        <v>2193.7615</v>
       </c>
       <c r="G33" t="n">
-        <v>161.4</v>
+        <v>161.4166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>160</v>
       </c>
       <c r="F34" t="n">
-        <v>10.5</v>
+        <v>3036.0413</v>
       </c>
       <c r="G34" t="n">
-        <v>161.3666666666667</v>
+        <v>161.4</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E35" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F35" t="n">
-        <v>14569.0394</v>
+        <v>10.5</v>
       </c>
       <c r="G35" t="n">
-        <v>161.35</v>
+        <v>161.3666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C36" t="n">
         <v>159</v>
@@ -1301,15 +1408,18 @@
         <v>159</v>
       </c>
       <c r="E36" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F36" t="n">
-        <v>1103.7081</v>
+        <v>14569.0394</v>
       </c>
       <c r="G36" t="n">
-        <v>161.3333333333333</v>
+        <v>161.35</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" t="n">
         <v>159</v>
@@ -1327,15 +1437,18 @@
         <v>159</v>
       </c>
       <c r="E37" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F37" t="n">
-        <v>939</v>
+        <v>1103.7081</v>
       </c>
       <c r="G37" t="n">
         <v>161.3333333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>159</v>
       </c>
       <c r="F38" t="n">
-        <v>2176.7421</v>
+        <v>939</v>
       </c>
       <c r="G38" t="n">
         <v>161.3333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>159</v>
       </c>
       <c r="F39" t="n">
-        <v>2491.3911</v>
+        <v>2176.7421</v>
       </c>
       <c r="G39" t="n">
         <v>161.3333333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E40" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F40" t="n">
-        <v>1155.6007</v>
+        <v>2491.3911</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3166666666667</v>
+        <v>161.3333333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>158</v>
       </c>
       <c r="F41" t="n">
-        <v>294.1545</v>
+        <v>1155.6007</v>
       </c>
       <c r="G41" t="n">
-        <v>161.2666666666667</v>
+        <v>161.3166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>158</v>
       </c>
       <c r="C42" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E42" t="n">
         <v>158</v>
       </c>
       <c r="F42" t="n">
-        <v>710.2397999999999</v>
+        <v>294.1545</v>
       </c>
       <c r="G42" t="n">
-        <v>161.2333333333333</v>
+        <v>161.2666666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" t="n">
         <v>159</v>
@@ -1483,15 +1611,18 @@
         <v>159</v>
       </c>
       <c r="E43" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" t="n">
-        <v>542.3807</v>
+        <v>710.2397999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>161.2</v>
+        <v>161.2333333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C44" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D44" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E44" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F44" t="n">
-        <v>13452.7438</v>
+        <v>542.3807</v>
       </c>
       <c r="G44" t="n">
-        <v>161.1</v>
+        <v>161.2</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C45" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D45" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E45" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F45" t="n">
-        <v>874.5897</v>
+        <v>13452.7438</v>
       </c>
       <c r="G45" t="n">
-        <v>161.0666666666667</v>
+        <v>161.1</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C46" t="n">
         <v>159</v>
@@ -1561,15 +1698,18 @@
         <v>159</v>
       </c>
       <c r="E46" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F46" t="n">
-        <v>17776.8551</v>
+        <v>874.5897</v>
       </c>
       <c r="G46" t="n">
-        <v>161</v>
+        <v>161.0666666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,7 +1718,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C47" t="n">
         <v>159</v>
@@ -1587,15 +1727,18 @@
         <v>159</v>
       </c>
       <c r="E47" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F47" t="n">
-        <v>4265.4774</v>
+        <v>17776.8551</v>
       </c>
       <c r="G47" t="n">
-        <v>160.9333333333333</v>
+        <v>161</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>4265.4774</v>
       </c>
       <c r="G48" t="n">
-        <v>160.9</v>
+        <v>160.9333333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>160</v>
       </c>
       <c r="F49" t="n">
-        <v>721.6592000000001</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>160.85</v>
+        <v>160.9</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" t="n">
         <v>160</v>
       </c>
       <c r="D50" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E50" t="n">
         <v>160</v>
       </c>
       <c r="F50" t="n">
-        <v>433.6845</v>
+        <v>721.6592000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>160.8333333333333</v>
+        <v>160.85</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C51" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D51" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E51" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F51" t="n">
-        <v>1439.3962</v>
+        <v>433.6845</v>
       </c>
       <c r="G51" t="n">
-        <v>160.75</v>
+        <v>160.8333333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C52" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E52" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F52" t="n">
-        <v>9.6645</v>
+        <v>1439.3962</v>
       </c>
       <c r="G52" t="n">
-        <v>160.7333333333333</v>
+        <v>160.75</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C53" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E53" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F53" t="n">
-        <v>145.4668</v>
+        <v>9.6645</v>
       </c>
       <c r="G53" t="n">
-        <v>160.6333333333333</v>
+        <v>160.7333333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" t="n">
-        <v>327.7732</v>
+        <v>145.4668</v>
       </c>
       <c r="G54" t="n">
-        <v>160.55</v>
+        <v>160.6333333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>160</v>
       </c>
       <c r="C55" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" t="n">
         <v>160</v>
       </c>
       <c r="E55" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F55" t="n">
-        <v>8000</v>
+        <v>327.7732</v>
       </c>
       <c r="G55" t="n">
-        <v>160.4833333333333</v>
+        <v>160.55</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>159</v>
       </c>
       <c r="F56" t="n">
-        <v>832.6994999999999</v>
+        <v>8000</v>
       </c>
       <c r="G56" t="n">
-        <v>160.4</v>
+        <v>160.4833333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C57" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D57" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E57" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F57" t="n">
-        <v>3933</v>
+        <v>832.6994999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>160.3166666666667</v>
+        <v>160.4</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>158</v>
       </c>
       <c r="F58" t="n">
-        <v>7613.4249</v>
+        <v>3933</v>
       </c>
       <c r="G58" t="n">
-        <v>160.25</v>
+        <v>160.3166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>158</v>
       </c>
       <c r="F59" t="n">
-        <v>276.4439</v>
+        <v>7613.4249</v>
       </c>
       <c r="G59" t="n">
-        <v>160.15</v>
+        <v>160.25</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>158</v>
       </c>
       <c r="F60" t="n">
-        <v>138.222</v>
+        <v>276.4439</v>
       </c>
       <c r="G60" t="n">
-        <v>160.05</v>
+        <v>160.15</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>158</v>
       </c>
       <c r="F61" t="n">
-        <v>93.73950000000001</v>
+        <v>138.222</v>
       </c>
       <c r="G61" t="n">
-        <v>159.9666666666667</v>
+        <v>160.05</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C62" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D62" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E62" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F62" t="n">
-        <v>6194.0341</v>
+        <v>93.73950000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>159.8333333333333</v>
+        <v>159.9666666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>157</v>
       </c>
       <c r="F63" t="n">
-        <v>4480</v>
+        <v>6194.0341</v>
       </c>
       <c r="G63" t="n">
-        <v>159.75</v>
+        <v>159.8333333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>157</v>
       </c>
       <c r="F64" t="n">
-        <v>5282.9002</v>
+        <v>4480</v>
       </c>
       <c r="G64" t="n">
-        <v>159.65</v>
+        <v>159.75</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>157</v>
       </c>
       <c r="F65" t="n">
-        <v>5028.9776</v>
+        <v>5282.9002</v>
       </c>
       <c r="G65" t="n">
-        <v>159.5833333333333</v>
+        <v>159.65</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D66" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E66" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F66" t="n">
-        <v>8225.4828</v>
+        <v>5028.9776</v>
       </c>
       <c r="G66" t="n">
-        <v>159.4833333333333</v>
+        <v>159.5833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>156</v>
       </c>
       <c r="C67" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D67" t="n">
         <v>156</v>
       </c>
       <c r="E67" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F67" t="n">
-        <v>223.2687</v>
+        <v>8225.4828</v>
       </c>
       <c r="G67" t="n">
-        <v>159.4166666666667</v>
+        <v>159.4833333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>156</v>
       </c>
       <c r="C68" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D68" t="n">
         <v>156</v>
       </c>
       <c r="E68" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F68" t="n">
-        <v>10020</v>
+        <v>223.2687</v>
       </c>
       <c r="G68" t="n">
-        <v>159.3</v>
+        <v>159.4166666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C69" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E69" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F69" t="n">
-        <v>2441.5354</v>
+        <v>10020</v>
       </c>
       <c r="G69" t="n">
-        <v>159.2</v>
+        <v>159.3</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C70" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D70" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E70" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F70" t="n">
-        <v>240.9413</v>
+        <v>2441.5354</v>
       </c>
       <c r="G70" t="n">
-        <v>159.1</v>
+        <v>159.2</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>154</v>
       </c>
       <c r="F71" t="n">
-        <v>253.9226</v>
+        <v>240.9413</v>
       </c>
       <c r="G71" t="n">
-        <v>158.9666666666667</v>
+        <v>159.1</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>154</v>
       </c>
       <c r="F72" t="n">
-        <v>1512.2397</v>
+        <v>253.9226</v>
       </c>
       <c r="G72" t="n">
-        <v>158.8166666666667</v>
+        <v>158.9666666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E73" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" t="n">
-        <v>30</v>
+        <v>1512.2397</v>
       </c>
       <c r="G73" t="n">
-        <v>158.7333333333333</v>
+        <v>158.8166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>155</v>
       </c>
       <c r="F74" t="n">
-        <v>1892.0206</v>
+        <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>158.6333333333333</v>
+        <v>158.7333333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D75" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F75" t="n">
-        <v>801.3933</v>
+        <v>1892.0206</v>
       </c>
       <c r="G75" t="n">
-        <v>158.5666666666667</v>
+        <v>158.6333333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D76" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E76" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F76" t="n">
-        <v>25305.5054</v>
+        <v>801.3933</v>
       </c>
       <c r="G76" t="n">
-        <v>158.4333333333333</v>
+        <v>158.5666666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D77" t="n">
         <v>155</v>
       </c>
       <c r="E77" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F77" t="n">
-        <v>267.8727</v>
+        <v>25305.5054</v>
       </c>
       <c r="G77" t="n">
-        <v>158.35</v>
+        <v>158.4333333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" t="n">
         <v>155</v>
       </c>
       <c r="D78" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E78" t="n">
         <v>155</v>
       </c>
       <c r="F78" t="n">
-        <v>1503.4394</v>
+        <v>267.8727</v>
       </c>
       <c r="G78" t="n">
-        <v>158.25</v>
+        <v>158.35</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>156</v>
       </c>
       <c r="C79" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D79" t="n">
         <v>156</v>
       </c>
       <c r="E79" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F79" t="n">
-        <v>178.8856</v>
+        <v>1503.4394</v>
       </c>
       <c r="G79" t="n">
-        <v>158.1666666666667</v>
+        <v>158.25</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C80" t="n">
         <v>156</v>
@@ -2445,15 +2684,18 @@
         <v>156</v>
       </c>
       <c r="E80" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F80" t="n">
-        <v>411.1347</v>
+        <v>178.8856</v>
       </c>
       <c r="G80" t="n">
-        <v>158.0666666666667</v>
+        <v>158.1666666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,10 +2704,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C81" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D81" t="n">
         <v>156</v>
@@ -2474,12 +2716,15 @@
         <v>155</v>
       </c>
       <c r="F81" t="n">
-        <v>261.98</v>
+        <v>411.1347</v>
       </c>
       <c r="G81" t="n">
-        <v>157.9833333333333</v>
+        <v>158.0666666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D82" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E82" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F82" t="n">
-        <v>11720</v>
+        <v>261.98</v>
       </c>
       <c r="G82" t="n">
-        <v>157.8833333333333</v>
+        <v>157.9833333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2765,24 @@
         <v>155</v>
       </c>
       <c r="C83" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" t="n">
         <v>155</v>
       </c>
       <c r="E83" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F83" t="n">
-        <v>5015.3455</v>
+        <v>11720</v>
       </c>
       <c r="G83" t="n">
-        <v>157.7833333333333</v>
+        <v>157.8833333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>155</v>
       </c>
       <c r="F84" t="n">
-        <v>99.98999999999999</v>
+        <v>5015.3455</v>
       </c>
       <c r="G84" t="n">
-        <v>157.7</v>
+        <v>157.7833333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>155</v>
       </c>
       <c r="F85" t="n">
-        <v>103</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>157.6</v>
+        <v>157.7</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>155</v>
       </c>
       <c r="F86" t="n">
-        <v>293.5419</v>
+        <v>103</v>
       </c>
       <c r="G86" t="n">
-        <v>157.5</v>
+        <v>157.6</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C87" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D87" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E87" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F87" t="n">
-        <v>23045.0766</v>
+        <v>293.5419</v>
       </c>
       <c r="G87" t="n">
-        <v>157.3833333333333</v>
+        <v>157.5</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>154</v>
       </c>
       <c r="F88" t="n">
-        <v>1143.2673</v>
+        <v>23045.0766</v>
       </c>
       <c r="G88" t="n">
-        <v>157.2666666666667</v>
+        <v>157.3833333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>154</v>
       </c>
       <c r="F89" t="n">
-        <v>593.6926999999999</v>
+        <v>1143.2673</v>
       </c>
       <c r="G89" t="n">
-        <v>157.15</v>
+        <v>157.2666666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>154</v>
       </c>
       <c r="F90" t="n">
-        <v>150</v>
+        <v>593.6926999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>157.0333333333333</v>
+        <v>157.15</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C91" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D91" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E91" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F91" t="n">
-        <v>586.7219</v>
+        <v>150</v>
       </c>
       <c r="G91" t="n">
-        <v>156.9833333333333</v>
+        <v>157.0333333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C92" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D92" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E92" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F92" t="n">
-        <v>291.2262</v>
+        <v>586.7219</v>
       </c>
       <c r="G92" t="n">
-        <v>156.9</v>
+        <v>156.9833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>155</v>
       </c>
       <c r="F93" t="n">
-        <v>4483.749</v>
+        <v>291.2262</v>
       </c>
       <c r="G93" t="n">
-        <v>156.8166666666667</v>
+        <v>156.9</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C94" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D94" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E94" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F94" t="n">
-        <v>9853.9462</v>
+        <v>4483.749</v>
       </c>
       <c r="G94" t="n">
-        <v>156.7166666666667</v>
+        <v>156.8166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C95" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D95" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E95" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F95" t="n">
-        <v>2257.4322</v>
+        <v>9853.9462</v>
       </c>
       <c r="G95" t="n">
-        <v>156.65</v>
+        <v>156.7166666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C96" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D96" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E96" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F96" t="n">
-        <v>62089.8317</v>
+        <v>2257.4322</v>
       </c>
       <c r="G96" t="n">
-        <v>156.55</v>
+        <v>156.65</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2884,18 +3174,21 @@
         <v>153</v>
       </c>
       <c r="D97" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E97" t="n">
         <v>153</v>
       </c>
       <c r="F97" t="n">
-        <v>10752.2189</v>
+        <v>62089.8317</v>
       </c>
       <c r="G97" t="n">
-        <v>156.45</v>
+        <v>156.55</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C98" t="n">
         <v>153</v>
       </c>
       <c r="D98" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E98" t="n">
         <v>153</v>
       </c>
       <c r="F98" t="n">
-        <v>116.9701</v>
+        <v>10752.2189</v>
       </c>
       <c r="G98" t="n">
-        <v>156.35</v>
+        <v>156.45</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>153</v>
       </c>
       <c r="F99" t="n">
-        <v>304.9278</v>
+        <v>116.9701</v>
       </c>
       <c r="G99" t="n">
-        <v>156.25</v>
+        <v>156.35</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>153</v>
       </c>
       <c r="C100" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D100" t="n">
         <v>153</v>
       </c>
       <c r="E100" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F100" t="n">
-        <v>2377.5544</v>
+        <v>304.9278</v>
       </c>
       <c r="G100" t="n">
-        <v>156.15</v>
+        <v>156.25</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C101" t="n">
         <v>152</v>
       </c>
       <c r="D101" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E101" t="n">
         <v>152</v>
       </c>
       <c r="F101" t="n">
-        <v>5960</v>
+        <v>2377.5544</v>
       </c>
       <c r="G101" t="n">
-        <v>156.05</v>
+        <v>156.15</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>152</v>
       </c>
       <c r="F102" t="n">
-        <v>7219.8052</v>
+        <v>5960</v>
       </c>
       <c r="G102" t="n">
-        <v>155.9333333333333</v>
+        <v>156.05</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>152</v>
       </c>
       <c r="F103" t="n">
-        <v>406.1298</v>
+        <v>7219.8052</v>
       </c>
       <c r="G103" t="n">
-        <v>155.8166666666667</v>
+        <v>155.9333333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>152</v>
       </c>
       <c r="F104" t="n">
-        <v>2443.5236</v>
+        <v>406.1298</v>
       </c>
       <c r="G104" t="n">
-        <v>155.75</v>
+        <v>155.8166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>152</v>
       </c>
       <c r="F105" t="n">
-        <v>131.5609</v>
+        <v>2443.5236</v>
       </c>
       <c r="G105" t="n">
-        <v>155.6333333333333</v>
+        <v>155.75</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>152</v>
       </c>
       <c r="F106" t="n">
-        <v>257.9217</v>
+        <v>131.5609</v>
       </c>
       <c r="G106" t="n">
-        <v>155.5166666666667</v>
+        <v>155.6333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>152</v>
       </c>
       <c r="F107" t="n">
-        <v>205.1892</v>
+        <v>257.9217</v>
       </c>
       <c r="G107" t="n">
-        <v>155.4</v>
+        <v>155.5166666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>152</v>
       </c>
       <c r="F108" t="n">
-        <v>1086.8694</v>
+        <v>205.1892</v>
       </c>
       <c r="G108" t="n">
-        <v>155.2666666666667</v>
+        <v>155.4</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>152</v>
       </c>
       <c r="F109" t="n">
-        <v>233.3358</v>
+        <v>1086.8694</v>
       </c>
       <c r="G109" t="n">
-        <v>155.1333333333333</v>
+        <v>155.2666666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>152</v>
       </c>
       <c r="F110" t="n">
-        <v>213.1213</v>
+        <v>233.3358</v>
       </c>
       <c r="G110" t="n">
-        <v>155</v>
+        <v>155.1333333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E111" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F111" t="n">
-        <v>4500</v>
+        <v>213.1213</v>
       </c>
       <c r="G111" t="n">
-        <v>154.9333333333333</v>
+        <v>155</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>153</v>
       </c>
       <c r="F112" t="n">
-        <v>406.1298</v>
+        <v>4500</v>
       </c>
       <c r="G112" t="n">
-        <v>154.8</v>
+        <v>154.9333333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D113" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E113" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F113" t="n">
-        <v>114.809</v>
+        <v>406.1298</v>
       </c>
       <c r="G113" t="n">
-        <v>154.7166666666667</v>
+        <v>154.8</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C114" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D114" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E114" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F114" t="n">
-        <v>1167.7225</v>
+        <v>114.809</v>
       </c>
       <c r="G114" t="n">
-        <v>154.6333333333333</v>
+        <v>154.7166666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C115" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D115" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E115" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F115" t="n">
-        <v>4165.7038</v>
+        <v>1167.7225</v>
       </c>
       <c r="G115" t="n">
-        <v>154.55</v>
+        <v>154.6333333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>154</v>
       </c>
       <c r="F116" t="n">
-        <v>4704.1493</v>
+        <v>4165.7038</v>
       </c>
       <c r="G116" t="n">
-        <v>154.4666666666667</v>
+        <v>154.55</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C117" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D117" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E117" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F117" t="n">
-        <v>2815.8238</v>
+        <v>4704.1493</v>
       </c>
       <c r="G117" t="n">
-        <v>154.3833333333333</v>
+        <v>154.4666666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>153</v>
       </c>
       <c r="F118" t="n">
-        <v>2546.7396</v>
+        <v>2815.8238</v>
       </c>
       <c r="G118" t="n">
-        <v>154.3</v>
+        <v>154.3833333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>153</v>
       </c>
       <c r="C119" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D119" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E119" t="n">
         <v>153</v>
       </c>
       <c r="F119" t="n">
-        <v>1963.2843</v>
+        <v>2546.7396</v>
       </c>
       <c r="G119" t="n">
-        <v>154.2666666666667</v>
+        <v>154.3</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C120" t="n">
         <v>156</v>
@@ -3485,15 +3844,18 @@
         <v>156</v>
       </c>
       <c r="E120" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F120" t="n">
-        <v>1.3</v>
+        <v>1963.2843</v>
       </c>
       <c r="G120" t="n">
-        <v>154.2333333333333</v>
+        <v>154.2666666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>156</v>
       </c>
       <c r="F121" t="n">
-        <v>18</v>
+        <v>1.3</v>
       </c>
       <c r="G121" t="n">
-        <v>154.2</v>
+        <v>154.2333333333333</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>156</v>
       </c>
       <c r="F122" t="n">
-        <v>6024.2207</v>
+        <v>18</v>
       </c>
       <c r="G122" t="n">
-        <v>154.1833333333333</v>
+        <v>154.2</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D123" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E123" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>6024.2207</v>
       </c>
       <c r="G123" t="n">
         <v>154.1833333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C124" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D124" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E124" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F124" t="n">
-        <v>266.0709</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>154.15</v>
+        <v>154.1833333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>155</v>
       </c>
       <c r="F125" t="n">
-        <v>119.0522</v>
+        <v>266.0709</v>
       </c>
       <c r="G125" t="n">
-        <v>154.1166666666667</v>
+        <v>154.15</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C126" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D126" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E126" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F126" t="n">
-        <v>60</v>
+        <v>119.0522</v>
       </c>
       <c r="G126" t="n">
-        <v>154.1333333333333</v>
+        <v>154.1166666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>156</v>
       </c>
       <c r="F127" t="n">
-        <v>1284.705128205128</v>
+        <v>60</v>
       </c>
       <c r="G127" t="n">
         <v>154.1333333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C128" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D128" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E128" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F128" t="n">
-        <v>508.2651</v>
+        <v>1284.705128205128</v>
       </c>
       <c r="G128" t="n">
-        <v>154.15</v>
+        <v>154.1333333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C129" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D129" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E129" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>508.2651</v>
       </c>
       <c r="G129" t="n">
-        <v>154.1666666666667</v>
+        <v>154.15</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C130" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D130" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E130" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F130" t="n">
-        <v>279.0614</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>154.1833333333333</v>
+        <v>154.1666666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3765,21 +4157,24 @@
         <v>155</v>
       </c>
       <c r="C131" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D131" t="n">
         <v>155</v>
       </c>
       <c r="E131" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F131" t="n">
-        <v>8301.693600000001</v>
+        <v>279.0614</v>
       </c>
       <c r="G131" t="n">
         <v>154.1833333333333</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C132" t="n">
         <v>154</v>
       </c>
       <c r="D132" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E132" t="n">
         <v>154</v>
       </c>
       <c r="F132" t="n">
-        <v>3912.2574</v>
+        <v>8301.693600000001</v>
       </c>
       <c r="G132" t="n">
         <v>154.1833333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3820,18 +4218,21 @@
         <v>154</v>
       </c>
       <c r="D133" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E133" t="n">
         <v>154</v>
       </c>
       <c r="F133" t="n">
-        <v>2847.807</v>
+        <v>3912.2574</v>
       </c>
       <c r="G133" t="n">
-        <v>154.1666666666667</v>
+        <v>154.1833333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3846,18 +4247,21 @@
         <v>154</v>
       </c>
       <c r="D134" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E134" t="n">
         <v>154</v>
       </c>
       <c r="F134" t="n">
-        <v>1000</v>
+        <v>2847.807</v>
       </c>
       <c r="G134" t="n">
-        <v>154.15</v>
+        <v>154.1666666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>154</v>
       </c>
       <c r="F135" t="n">
-        <v>1975.1665</v>
+        <v>1000</v>
       </c>
       <c r="G135" t="n">
-        <v>154.1166666666667</v>
+        <v>154.15</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C136" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D136" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E136" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F136" t="n">
-        <v>2296.1991</v>
+        <v>1975.1665</v>
       </c>
       <c r="G136" t="n">
-        <v>154.1833333333333</v>
+        <v>154.1166666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C137" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D137" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E137" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>2296.1991</v>
       </c>
       <c r="G137" t="n">
-        <v>154.2333333333333</v>
+        <v>154.1833333333333</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C138" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D138" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E138" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F138" t="n">
-        <v>264.9159</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>154.25</v>
+        <v>154.2333333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>156</v>
       </c>
       <c r="F139" t="n">
-        <v>212.1266</v>
+        <v>264.9159</v>
       </c>
       <c r="G139" t="n">
         <v>154.25</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C140" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D140" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E140" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>212.1266</v>
       </c>
       <c r="G140" t="n">
-        <v>154.2666666666667</v>
+        <v>154.25</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>157</v>
       </c>
       <c r="F141" t="n">
-        <v>4287.9369</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>154.3</v>
+        <v>154.2666666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>157</v>
       </c>
       <c r="C142" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D142" t="n">
         <v>157</v>
       </c>
       <c r="E142" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F142" t="n">
-        <v>4189.6013</v>
+        <v>4287.9369</v>
       </c>
       <c r="G142" t="n">
-        <v>154.3333333333333</v>
+        <v>154.3</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C143" t="n">
         <v>156</v>
       </c>
       <c r="D143" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E143" t="n">
         <v>156</v>
       </c>
       <c r="F143" t="n">
-        <v>528</v>
+        <v>4189.6013</v>
       </c>
       <c r="G143" t="n">
-        <v>154.35</v>
+        <v>154.3333333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>528</v>
       </c>
       <c r="G144" t="n">
-        <v>154.3833333333333</v>
+        <v>154.35</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C145" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D145" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E145" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F145" t="n">
-        <v>3925.2488</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>154.4</v>
+        <v>154.3833333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,21 +4592,24 @@
         <v>156</v>
       </c>
       <c r="C146" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D146" t="n">
         <v>156</v>
       </c>
       <c r="E146" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F146" t="n">
-        <v>2298.4854</v>
+        <v>3925.2488</v>
       </c>
       <c r="G146" t="n">
         <v>154.4</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4181,21 +4621,24 @@
         <v>156</v>
       </c>
       <c r="C147" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D147" t="n">
         <v>156</v>
       </c>
       <c r="E147" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F147" t="n">
-        <v>265.7523</v>
+        <v>2298.4854</v>
       </c>
       <c r="G147" t="n">
-        <v>154.4333333333333</v>
+        <v>154.4</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>156</v>
       </c>
       <c r="F148" t="n">
-        <v>150</v>
+        <v>265.7523</v>
       </c>
       <c r="G148" t="n">
-        <v>154.4666666666667</v>
+        <v>154.4333333333333</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>156</v>
       </c>
       <c r="F149" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="G149" t="n">
-        <v>154.5</v>
+        <v>154.4666666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C150" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D150" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E150" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F150" t="n">
-        <v>18.1937</v>
+        <v>251</v>
       </c>
       <c r="G150" t="n">
-        <v>154.55</v>
+        <v>154.5</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C151" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D151" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E151" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F151" t="n">
-        <v>621.562</v>
+        <v>18.1937</v>
       </c>
       <c r="G151" t="n">
         <v>154.55</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>156</v>
       </c>
       <c r="F152" t="n">
-        <v>1122</v>
+        <v>621.562</v>
       </c>
       <c r="G152" t="n">
-        <v>154.5666666666667</v>
+        <v>154.55</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>156</v>
       </c>
       <c r="F153" t="n">
-        <v>756</v>
+        <v>1122</v>
       </c>
       <c r="G153" t="n">
-        <v>154.5833333333333</v>
+        <v>154.5666666666667</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,12 +4833,15 @@
         <v>156</v>
       </c>
       <c r="F154" t="n">
-        <v>252</v>
+        <v>756</v>
       </c>
       <c r="G154" t="n">
-        <v>154.6166666666667</v>
+        <v>154.5833333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>156</v>
       </c>
       <c r="F155" t="n">
-        <v>1607.8269</v>
+        <v>252</v>
       </c>
       <c r="G155" t="n">
-        <v>154.6333333333333</v>
+        <v>154.6166666666667</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D156" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E156" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F156" t="n">
-        <v>4360.6079</v>
+        <v>1607.8269</v>
       </c>
       <c r="G156" t="n">
-        <v>154.6666666666667</v>
+        <v>154.6333333333333</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>155</v>
       </c>
       <c r="F157" t="n">
-        <v>157.1765</v>
+        <v>4360.6079</v>
       </c>
       <c r="G157" t="n">
-        <v>154.7</v>
+        <v>154.6666666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>155</v>
       </c>
       <c r="F158" t="n">
-        <v>1381.0385</v>
+        <v>157.1765</v>
       </c>
       <c r="G158" t="n">
-        <v>154.7333333333333</v>
+        <v>154.7</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C159" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D159" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E159" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F159" t="n">
-        <v>926.3176999999999</v>
+        <v>1381.0385</v>
       </c>
       <c r="G159" t="n">
-        <v>154.75</v>
+        <v>154.7333333333333</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>154</v>
       </c>
       <c r="F160" t="n">
-        <v>2541.3079</v>
+        <v>926.3176999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>154.7833333333333</v>
+        <v>154.75</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C161" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D161" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E161" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F161" t="n">
-        <v>4441.7465</v>
+        <v>2541.3079</v>
       </c>
       <c r="G161" t="n">
-        <v>154.8</v>
+        <v>154.7833333333333</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C162" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D162" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E162" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F162" t="n">
-        <v>438</v>
+        <v>4441.7465</v>
       </c>
       <c r="G162" t="n">
-        <v>154.85</v>
+        <v>154.8</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>155</v>
       </c>
       <c r="F163" t="n">
-        <v>90.15479999999999</v>
+        <v>438</v>
       </c>
       <c r="G163" t="n">
-        <v>154.9</v>
+        <v>154.85</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,21 +5114,24 @@
         <v>155</v>
       </c>
       <c r="C164" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D164" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E164" t="n">
         <v>155</v>
       </c>
       <c r="F164" t="n">
-        <v>931</v>
+        <v>90.15479999999999</v>
       </c>
       <c r="G164" t="n">
-        <v>154.9666666666667</v>
+        <v>154.9</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C165" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D165" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E165" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F165" t="n">
-        <v>7157.326</v>
+        <v>931</v>
       </c>
       <c r="G165" t="n">
-        <v>154.9833333333333</v>
+        <v>154.9666666666667</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C166" t="n">
         <v>153</v>
       </c>
       <c r="D166" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E166" t="n">
         <v>153</v>
       </c>
       <c r="F166" t="n">
-        <v>2130.6417</v>
+        <v>7157.326</v>
       </c>
       <c r="G166" t="n">
-        <v>155</v>
+        <v>154.9833333333333</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C167" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D167" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E167" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F167" t="n">
-        <v>99.15689999999999</v>
+        <v>2130.6417</v>
       </c>
       <c r="G167" t="n">
-        <v>155.0666666666667</v>
+        <v>155</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C168" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D168" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E168" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F168" t="n">
-        <v>115.2991</v>
+        <v>99.15689999999999</v>
       </c>
       <c r="G168" t="n">
-        <v>155.1166666666667</v>
+        <v>155.0666666666667</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>155</v>
       </c>
       <c r="F169" t="n">
-        <v>146.8456</v>
+        <v>115.2991</v>
       </c>
       <c r="G169" t="n">
-        <v>155.1666666666667</v>
+        <v>155.1166666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C170" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D170" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E170" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F170" t="n">
-        <v>5230.5958</v>
+        <v>146.8456</v>
       </c>
       <c r="G170" t="n">
-        <v>155.2666666666667</v>
+        <v>155.1666666666667</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C171" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D171" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E171" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F171" t="n">
-        <v>4501.35</v>
+        <v>5230.5958</v>
       </c>
       <c r="G171" t="n">
-        <v>155.3</v>
+        <v>155.2666666666667</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C172" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D172" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E172" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>4501.35</v>
       </c>
       <c r="G172" t="n">
         <v>155.3</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C173" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D173" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E173" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F173" t="n">
-        <v>4711.6592</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>155.3333333333333</v>
+        <v>155.3</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C174" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D174" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E174" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F174" t="n">
-        <v>6383.8934</v>
+        <v>4711.6592</v>
       </c>
       <c r="G174" t="n">
-        <v>155.3666666666667</v>
+        <v>155.3333333333333</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4909,21 +5433,24 @@
         <v>157</v>
       </c>
       <c r="C175" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D175" t="n">
         <v>157</v>
       </c>
       <c r="E175" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F175" t="n">
-        <v>5196.8454</v>
+        <v>6383.8934</v>
       </c>
       <c r="G175" t="n">
-        <v>155.35</v>
+        <v>155.3666666666667</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4935,21 +5462,24 @@
         <v>157</v>
       </c>
       <c r="C176" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D176" t="n">
         <v>157</v>
       </c>
       <c r="E176" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F176" t="n">
-        <v>300</v>
+        <v>5196.8454</v>
       </c>
       <c r="G176" t="n">
-        <v>155.4</v>
+        <v>155.35</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C177" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D177" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E177" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F177" t="n">
-        <v>5076.3473</v>
+        <v>300</v>
       </c>
       <c r="G177" t="n">
-        <v>155.5</v>
+        <v>155.4</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C178" t="n">
         <v>159</v>
       </c>
       <c r="D178" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E178" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F178" t="n">
-        <v>4581.174</v>
+        <v>5076.3473</v>
       </c>
       <c r="G178" t="n">
-        <v>155.6</v>
+        <v>155.5</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,25 +5546,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C179" t="n">
         <v>159</v>
       </c>
       <c r="D179" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E179" t="n">
         <v>159</v>
       </c>
       <c r="F179" t="n">
-        <v>2548.9559</v>
+        <v>4581.174</v>
       </c>
       <c r="G179" t="n">
-        <v>155.65</v>
+        <v>155.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -5048,13 +5587,16 @@
         <v>159</v>
       </c>
       <c r="F180" t="n">
-        <v>750</v>
+        <v>2548.9559</v>
       </c>
       <c r="G180" t="n">
-        <v>155.7</v>
+        <v>155.65</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -5065,22 +5607,25 @@
         <v>159</v>
       </c>
       <c r="C181" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D181" t="n">
         <v>159</v>
       </c>
       <c r="E181" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F181" t="n">
-        <v>2750</v>
+        <v>750</v>
       </c>
       <c r="G181" t="n">
-        <v>155.7333333333333</v>
+        <v>155.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C182" t="n">
         <v>158</v>
       </c>
       <c r="D182" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E182" t="n">
         <v>158</v>
       </c>
       <c r="F182" t="n">
-        <v>5245.7585</v>
+        <v>2750</v>
       </c>
       <c r="G182" t="n">
-        <v>155.7666666666667</v>
+        <v>155.7333333333333</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C183" t="n">
         <v>158</v>
       </c>
       <c r="D183" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E183" t="n">
         <v>158</v>
       </c>
       <c r="F183" t="n">
-        <v>9180.497600000001</v>
+        <v>5245.7585</v>
       </c>
       <c r="G183" t="n">
-        <v>155.7833333333333</v>
+        <v>155.7666666666667</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C184" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D184" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E184" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F184" t="n">
-        <v>264.484</v>
+        <v>9180.497600000001</v>
       </c>
       <c r="G184" t="n">
-        <v>155.85</v>
+        <v>155.7833333333333</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5169,21 +5723,24 @@
         <v>159</v>
       </c>
       <c r="C185" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D185" t="n">
         <v>159</v>
       </c>
       <c r="E185" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F185" t="n">
-        <v>5712.0734</v>
+        <v>264.484</v>
       </c>
       <c r="G185" t="n">
-        <v>155.9</v>
+        <v>155.85</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C186" t="n">
         <v>158</v>
       </c>
       <c r="D186" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E186" t="n">
         <v>158</v>
       </c>
       <c r="F186" t="n">
-        <v>925.5086</v>
+        <v>5712.0734</v>
       </c>
       <c r="G186" t="n">
-        <v>155.9333333333333</v>
+        <v>155.9</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C187" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D187" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E187" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F187" t="n">
-        <v>2901.1257</v>
+        <v>925.5086</v>
       </c>
       <c r="G187" t="n">
-        <v>155.9833333333333</v>
+        <v>155.9333333333333</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>159</v>
       </c>
       <c r="F188" t="n">
-        <v>1416.701</v>
+        <v>2901.1257</v>
       </c>
       <c r="G188" t="n">
-        <v>156.05</v>
+        <v>155.9833333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5282,12 +5848,15 @@
         <v>159</v>
       </c>
       <c r="F189" t="n">
-        <v>2582.299</v>
+        <v>1416.701</v>
       </c>
       <c r="G189" t="n">
-        <v>156.1</v>
+        <v>156.05</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C190" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D190" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E190" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F190" t="n">
-        <v>3518.2202</v>
+        <v>2582.299</v>
       </c>
       <c r="G190" t="n">
-        <v>156.1833333333333</v>
+        <v>156.1</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5325,21 +5897,24 @@
         <v>160</v>
       </c>
       <c r="C191" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D191" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E191" t="n">
         <v>160</v>
       </c>
       <c r="F191" t="n">
-        <v>8906.2271</v>
+        <v>3518.2202</v>
       </c>
       <c r="G191" t="n">
-        <v>156.3</v>
+        <v>156.1833333333333</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,7 +5923,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C192" t="n">
         <v>161</v>
@@ -5357,15 +5932,18 @@
         <v>161</v>
       </c>
       <c r="E192" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F192" t="n">
-        <v>2316.4674</v>
+        <v>8906.2271</v>
       </c>
       <c r="G192" t="n">
-        <v>156.4166666666667</v>
+        <v>156.3</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5377,21 +5955,24 @@
         <v>161</v>
       </c>
       <c r="C193" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D193" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E193" t="n">
         <v>161</v>
       </c>
       <c r="F193" t="n">
-        <v>3146.4425</v>
+        <v>2316.4674</v>
       </c>
       <c r="G193" t="n">
-        <v>156.55</v>
+        <v>156.4166666666667</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5403,21 +5984,24 @@
         <v>161</v>
       </c>
       <c r="C194" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D194" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E194" t="n">
         <v>161</v>
       </c>
       <c r="F194" t="n">
-        <v>637.3506</v>
+        <v>3146.4425</v>
       </c>
       <c r="G194" t="n">
-        <v>156.6666666666667</v>
+        <v>156.55</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C195" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D195" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E195" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F195" t="n">
-        <v>5297.4609</v>
+        <v>637.3506</v>
       </c>
       <c r="G195" t="n">
-        <v>156.75</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C196" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D196" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E196" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F196" t="n">
-        <v>267.0992</v>
+        <v>5297.4609</v>
       </c>
       <c r="G196" t="n">
-        <v>156.8166666666667</v>
+        <v>156.75</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C197" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D197" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E197" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F197" t="n">
-        <v>929.0683</v>
+        <v>267.0992</v>
       </c>
       <c r="G197" t="n">
-        <v>156.8333333333333</v>
+        <v>156.8166666666667</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C198" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D198" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E198" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F198" t="n">
-        <v>5245.7585</v>
+        <v>929.0683</v>
       </c>
       <c r="G198" t="n">
-        <v>156.8666666666667</v>
+        <v>156.8333333333333</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5533,21 +6129,24 @@
         <v>158</v>
       </c>
       <c r="C199" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D199" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E199" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F199" t="n">
-        <v>15015.5552</v>
+        <v>5245.7585</v>
       </c>
       <c r="G199" t="n">
-        <v>156.9166666666667</v>
+        <v>156.8666666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C200" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D200" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E200" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F200" t="n">
-        <v>5382.2038</v>
+        <v>15015.5552</v>
       </c>
       <c r="G200" t="n">
-        <v>156.9666666666667</v>
+        <v>156.9166666666667</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C201" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D201" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E201" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F201" t="n">
-        <v>1718.2879</v>
+        <v>5382.2038</v>
       </c>
       <c r="G201" t="n">
-        <v>156.9833333333333</v>
+        <v>156.9666666666667</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C202" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D202" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E202" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F202" t="n">
-        <v>492.6584</v>
+        <v>1718.2879</v>
       </c>
       <c r="G202" t="n">
-        <v>157.05</v>
+        <v>156.9833333333333</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>160</v>
       </c>
       <c r="F203" t="n">
-        <v>13493.9187</v>
+        <v>492.6584</v>
       </c>
       <c r="G203" t="n">
-        <v>157.1166666666667</v>
+        <v>157.05</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5672,12 +6283,15 @@
         <v>160</v>
       </c>
       <c r="F204" t="n">
-        <v>1702.7268</v>
+        <v>13493.9187</v>
       </c>
       <c r="G204" t="n">
-        <v>157.1666666666667</v>
+        <v>157.1166666666667</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5689,21 +6303,24 @@
         <v>160</v>
       </c>
       <c r="C205" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D205" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E205" t="n">
         <v>160</v>
       </c>
       <c r="F205" t="n">
-        <v>34823.4902</v>
+        <v>1702.7268</v>
       </c>
       <c r="G205" t="n">
-        <v>157.2833333333333</v>
+        <v>157.1666666666667</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,10 +6329,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>160</v>
+      </c>
+      <c r="C206" t="n">
         <v>163</v>
-      </c>
-      <c r="C206" t="n">
-        <v>160</v>
       </c>
       <c r="D206" t="n">
         <v>163</v>
@@ -5724,532 +6341,15 @@
         <v>160</v>
       </c>
       <c r="F206" t="n">
-        <v>3288.903</v>
+        <v>34823.4902</v>
       </c>
       <c r="G206" t="n">
-        <v>157.3666666666667</v>
+        <v>157.2833333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>160</v>
-      </c>
-      <c r="C207" t="n">
-        <v>159</v>
-      </c>
-      <c r="D207" t="n">
-        <v>160</v>
-      </c>
-      <c r="E207" t="n">
-        <v>159</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1935.3571</v>
-      </c>
-      <c r="G207" t="n">
-        <v>157.4166666666667</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>160</v>
-      </c>
-      <c r="C208" t="n">
-        <v>160</v>
-      </c>
-      <c r="D208" t="n">
-        <v>160</v>
-      </c>
-      <c r="E208" t="n">
-        <v>160</v>
-      </c>
-      <c r="F208" t="n">
-        <v>157.9416</v>
-      </c>
-      <c r="G208" t="n">
-        <v>157.4833333333333</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>160</v>
-      </c>
-      <c r="C209" t="n">
-        <v>160</v>
-      </c>
-      <c r="D209" t="n">
-        <v>160</v>
-      </c>
-      <c r="E209" t="n">
-        <v>160</v>
-      </c>
-      <c r="F209" t="n">
-        <v>10859.2021</v>
-      </c>
-      <c r="G209" t="n">
-        <v>157.55</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>159</v>
-      </c>
-      <c r="C210" t="n">
-        <v>159</v>
-      </c>
-      <c r="D210" t="n">
-        <v>159</v>
-      </c>
-      <c r="E210" t="n">
-        <v>159</v>
-      </c>
-      <c r="F210" t="n">
-        <v>4140</v>
-      </c>
-      <c r="G210" t="n">
-        <v>157.5833333333333</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>159</v>
-      </c>
-      <c r="C211" t="n">
-        <v>159</v>
-      </c>
-      <c r="D211" t="n">
-        <v>159</v>
-      </c>
-      <c r="E211" t="n">
-        <v>159</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1958.6074</v>
-      </c>
-      <c r="G211" t="n">
-        <v>157.6333333333333</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>159</v>
-      </c>
-      <c r="C212" t="n">
-        <v>159</v>
-      </c>
-      <c r="D212" t="n">
-        <v>159</v>
-      </c>
-      <c r="E212" t="n">
-        <v>159</v>
-      </c>
-      <c r="F212" t="n">
-        <v>4614.801</v>
-      </c>
-      <c r="G212" t="n">
-        <v>157.6833333333333</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>159</v>
-      </c>
-      <c r="C213" t="n">
-        <v>158</v>
-      </c>
-      <c r="D213" t="n">
-        <v>159</v>
-      </c>
-      <c r="E213" t="n">
-        <v>158</v>
-      </c>
-      <c r="F213" t="n">
-        <v>12743.4587</v>
-      </c>
-      <c r="G213" t="n">
-        <v>157.7166666666667</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>158</v>
-      </c>
-      <c r="C214" t="n">
-        <v>158</v>
-      </c>
-      <c r="D214" t="n">
-        <v>158</v>
-      </c>
-      <c r="E214" t="n">
-        <v>158</v>
-      </c>
-      <c r="F214" t="n">
-        <v>8182.8781</v>
-      </c>
-      <c r="G214" t="n">
-        <v>157.75</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>157</v>
-      </c>
-      <c r="C215" t="n">
-        <v>159</v>
-      </c>
-      <c r="D215" t="n">
-        <v>159</v>
-      </c>
-      <c r="E215" t="n">
-        <v>157</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2014.3821</v>
-      </c>
-      <c r="G215" t="n">
-        <v>157.8</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>158</v>
-      </c>
-      <c r="C216" t="n">
-        <v>158</v>
-      </c>
-      <c r="D216" t="n">
-        <v>159</v>
-      </c>
-      <c r="E216" t="n">
-        <v>157</v>
-      </c>
-      <c r="F216" t="n">
-        <v>526.2071999999999</v>
-      </c>
-      <c r="G216" t="n">
-        <v>157.85</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>160</v>
-      </c>
-      <c r="C217" t="n">
-        <v>160</v>
-      </c>
-      <c r="D217" t="n">
-        <v>160</v>
-      </c>
-      <c r="E217" t="n">
-        <v>160</v>
-      </c>
-      <c r="F217" t="n">
-        <v>250</v>
-      </c>
-      <c r="G217" t="n">
-        <v>157.9333333333333</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>158</v>
-      </c>
-      <c r="C218" t="n">
-        <v>158</v>
-      </c>
-      <c r="D218" t="n">
-        <v>159</v>
-      </c>
-      <c r="E218" t="n">
-        <v>158</v>
-      </c>
-      <c r="F218" t="n">
-        <v>5820.1259</v>
-      </c>
-      <c r="G218" t="n">
-        <v>157.9833333333333</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>158</v>
-      </c>
-      <c r="C219" t="n">
-        <v>159</v>
-      </c>
-      <c r="D219" t="n">
-        <v>159</v>
-      </c>
-      <c r="E219" t="n">
-        <v>158</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1925.6378</v>
-      </c>
-      <c r="G219" t="n">
-        <v>158.0666666666667</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>159</v>
-      </c>
-      <c r="C220" t="n">
-        <v>159</v>
-      </c>
-      <c r="D220" t="n">
-        <v>159</v>
-      </c>
-      <c r="E220" t="n">
-        <v>159</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1085</v>
-      </c>
-      <c r="G220" t="n">
-        <v>158.15</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>160</v>
-      </c>
-      <c r="C221" t="n">
-        <v>159</v>
-      </c>
-      <c r="D221" t="n">
-        <v>160</v>
-      </c>
-      <c r="E221" t="n">
-        <v>159</v>
-      </c>
-      <c r="F221" t="n">
-        <v>4039.7674</v>
-      </c>
-      <c r="G221" t="n">
-        <v>158.25</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>160</v>
-      </c>
-      <c r="C222" t="n">
-        <v>160</v>
-      </c>
-      <c r="D222" t="n">
-        <v>160</v>
-      </c>
-      <c r="E222" t="n">
-        <v>160</v>
-      </c>
-      <c r="F222" t="n">
-        <v>600</v>
-      </c>
-      <c r="G222" t="n">
-        <v>158.3333333333333</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>160</v>
-      </c>
-      <c r="C223" t="n">
-        <v>160</v>
-      </c>
-      <c r="D223" t="n">
-        <v>160</v>
-      </c>
-      <c r="E223" t="n">
-        <v>160</v>
-      </c>
-      <c r="F223" t="n">
-        <v>450</v>
-      </c>
-      <c r="G223" t="n">
-        <v>158.4166666666667</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>160</v>
-      </c>
-      <c r="C224" t="n">
-        <v>160</v>
-      </c>
-      <c r="D224" t="n">
-        <v>160</v>
-      </c>
-      <c r="E224" t="n">
-        <v>160</v>
-      </c>
-      <c r="F224" t="n">
-        <v>10</v>
-      </c>
-      <c r="G224" t="n">
-        <v>158.4833333333333</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>160</v>
-      </c>
-      <c r="C225" t="n">
-        <v>160</v>
-      </c>
-      <c r="D225" t="n">
-        <v>160</v>
-      </c>
-      <c r="E225" t="n">
-        <v>160</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2020</v>
-      </c>
-      <c r="G225" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>159</v>
-      </c>
-      <c r="C226" t="n">
-        <v>160</v>
-      </c>
-      <c r="D226" t="n">
-        <v>160</v>
-      </c>
-      <c r="E226" t="n">
-        <v>158</v>
-      </c>
-      <c r="F226" t="n">
-        <v>940.3051</v>
-      </c>
-      <c r="G226" t="n">
-        <v>158.7166666666667</v>
-      </c>
-      <c r="H226" t="n">
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
